--- a/biology/Botanique/Antonina_Borissova/Antonina_Borissova.xlsx
+++ b/biology/Botanique/Antonina_Borissova/Antonina_Borissova.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Antonina Gueorguievna Borissova (1903-1970) est une botaniste russe soviétique, spécialiste de la flore des déserts et semi-déserts d'Asie centrale.
 Parmi les 409 sortes de plantes qu'elle a décrites selon l'IPNI, l'on peut citer :
@@ -516,7 +528,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ont été nommées en son honneur les plantes suivantes :
 Sedum borissovae Balk.
@@ -548,7 +562,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Толстянковые Флоры СССР
 Crassulaceae — Толстянковые //in Сорные растения СССР., Moscou, 1969. — Т. 3.- p. 113–117.
